--- a/Code/Results/Cases/Case_2_223/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_223/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9808598567682706</v>
+        <v>1.015364243298753</v>
       </c>
       <c r="D2">
-        <v>1.002702808519232</v>
+        <v>1.021167648832802</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.956669251833094</v>
+        <v>1.013690346630008</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035896400903711</v>
+        <v>1.026099249651183</v>
       </c>
       <c r="J2">
-        <v>1.003628516092552</v>
+        <v>1.02059018207206</v>
       </c>
       <c r="K2">
-        <v>1.014124616918863</v>
+        <v>1.024005777855235</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9687671845209557</v>
+        <v>1.016550741404369</v>
       </c>
       <c r="N2">
-        <v>1.005053783703203</v>
+        <v>1.022039537193933</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.985698441377347</v>
+        <v>1.016346517302342</v>
       </c>
       <c r="D3">
-        <v>1.006001243443459</v>
+        <v>1.021849553635956</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.964308020699016</v>
+        <v>1.015316820857091</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036811194994733</v>
+        <v>1.026215004597372</v>
       </c>
       <c r="J3">
-        <v>1.006586722351918</v>
+        <v>1.021207265213675</v>
       </c>
       <c r="K3">
-        <v>1.01655790882187</v>
+        <v>1.024494418912385</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9754189179750081</v>
+        <v>1.017979714334573</v>
       </c>
       <c r="N3">
-        <v>1.008016190954768</v>
+        <v>1.022657496664389</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9887524070474474</v>
+        <v>1.01698174162119</v>
       </c>
       <c r="D4">
-        <v>1.008085053131952</v>
+        <v>1.022290304323513</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9691152760396162</v>
+        <v>1.016368725254824</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03737632965352</v>
+        <v>1.026288326665405</v>
       </c>
       <c r="J4">
-        <v>1.008448270080501</v>
+        <v>1.021605632708728</v>
       </c>
       <c r="K4">
-        <v>1.018086868315949</v>
+        <v>1.024809441117416</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9796013210128426</v>
+        <v>1.018903370668545</v>
       </c>
       <c r="N4">
-        <v>1.009880382294649</v>
+        <v>1.023056429886978</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9900186750960898</v>
+        <v>1.017248701714699</v>
       </c>
       <c r="D5">
-        <v>1.008949457245868</v>
+        <v>1.022475479080598</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9711055934231868</v>
+        <v>1.016810825257778</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037607665677629</v>
+        <v>1.026318773127447</v>
       </c>
       <c r="J5">
-        <v>1.009218776126567</v>
+        <v>1.021772885236777</v>
       </c>
       <c r="K5">
-        <v>1.018719135332098</v>
+        <v>1.02494159861179</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9813320104312393</v>
+        <v>1.019291446130043</v>
       </c>
       <c r="N5">
-        <v>1.010651982547679</v>
+        <v>1.023223919932801</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9902302760258378</v>
+        <v>1.017293520345345</v>
       </c>
       <c r="D6">
-        <v>1.009093925335117</v>
+        <v>1.022506563880959</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9714380285299377</v>
+        <v>1.016885048925344</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037646146398556</v>
+        <v>1.026323863045662</v>
       </c>
       <c r="J6">
-        <v>1.009347452653094</v>
+        <v>1.021800954721672</v>
       </c>
       <c r="K6">
-        <v>1.018824690562821</v>
+        <v>1.024963772148413</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9816210254208905</v>
+        <v>1.019356592416429</v>
       </c>
       <c r="N6">
-        <v>1.010780841809632</v>
+        <v>1.023252029279584</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9887693952003177</v>
+        <v>1.016985309100398</v>
       </c>
       <c r="D7">
-        <v>1.008096648451761</v>
+        <v>1.022292779096991</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9691419889341159</v>
+        <v>1.016374633081875</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037379445106471</v>
+        <v>1.026288734978456</v>
       </c>
       <c r="J7">
-        <v>1.008458612476312</v>
+        <v>1.021607868413436</v>
       </c>
       <c r="K7">
-        <v>1.018095357482897</v>
+        <v>1.024811208103873</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9796245530368918</v>
+        <v>1.018908557046742</v>
       </c>
       <c r="N7">
-        <v>1.009890739377848</v>
+        <v>1.023058668766643</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9825115033389977</v>
+        <v>1.015696285161701</v>
       </c>
       <c r="D8">
-        <v>1.003828273128702</v>
+        <v>1.021398202559479</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9592800016550364</v>
+        <v>1.014240135854391</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036211214318018</v>
+        <v>1.026138696491979</v>
       </c>
       <c r="J8">
-        <v>1.004639465376088</v>
+        <v>1.020798920456006</v>
       </c>
       <c r="K8">
-        <v>1.014956636535925</v>
+        <v>1.024171156929384</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9710413410160402</v>
+        <v>1.017033877051458</v>
       </c>
       <c r="N8">
-        <v>1.006066168650679</v>
+        <v>1.022248572010327</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9708563099628219</v>
+        <v>1.013421960570173</v>
       </c>
       <c r="D9">
-        <v>0.9958976505539646</v>
+        <v>1.01981811846632</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9407747855508425</v>
+        <v>1.010474479731911</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033939110944537</v>
+        <v>1.025862218915649</v>
       </c>
       <c r="J9">
-        <v>0.9974819130922501</v>
+        <v>1.019366324389581</v>
       </c>
       <c r="K9">
-        <v>1.00905763802218</v>
+        <v>1.023034403253406</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9549078603673115</v>
+        <v>1.013722636993953</v>
       </c>
       <c r="N9">
-        <v>0.9988984518216157</v>
+        <v>1.020813941493165</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9626042223560248</v>
+        <v>1.01190372749183</v>
       </c>
       <c r="D10">
-        <v>0.9903009436253333</v>
+        <v>1.018762229298096</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9275404487321913</v>
+        <v>1.007960641804139</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032267999120393</v>
+        <v>1.025669775101214</v>
       </c>
       <c r="J10">
-        <v>0.9923843264167326</v>
+        <v>1.018406424361843</v>
       </c>
       <c r="K10">
-        <v>1.004847553879198</v>
+        <v>1.02227056849797</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9433540119157722</v>
+        <v>1.0115095069206</v>
       </c>
       <c r="N10">
-        <v>0.9937936259883177</v>
+        <v>1.019852678297287</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9589015012470692</v>
+        <v>1.011245821567274</v>
       </c>
       <c r="D11">
-        <v>0.9877953107976502</v>
+        <v>1.018304424818269</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9215604850199938</v>
+        <v>1.00687121680024</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031504027016929</v>
+        <v>1.025584517903062</v>
       </c>
       <c r="J11">
-        <v>0.9900899338386522</v>
+        <v>1.017989619303838</v>
       </c>
       <c r="K11">
-        <v>1.002951119267493</v>
+        <v>1.021938392802107</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9381304944790575</v>
+        <v>1.010549774613509</v>
       </c>
       <c r="N11">
-        <v>0.9914959751096057</v>
+        <v>1.019435281328291</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9575052322639112</v>
+        <v>1.011001369263941</v>
       </c>
       <c r="D12">
-        <v>0.9868514131838306</v>
+        <v>1.018134285976328</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9192982026479188</v>
+        <v>1.006466409561581</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031213872934279</v>
+        <v>1.025552559924964</v>
       </c>
       <c r="J12">
-        <v>0.9892236630913113</v>
+        <v>1.01783462375059</v>
       </c>
       <c r="K12">
-        <v>1.002234930533115</v>
+        <v>1.021814792648913</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9361540326064747</v>
+        <v>1.010193064659216</v>
       </c>
       <c r="N12">
-        <v>0.9906284741584411</v>
+        <v>1.019280065663579</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9578057081813897</v>
+        <v>1.011053808609866</v>
       </c>
       <c r="D13">
-        <v>0.9870544939888233</v>
+        <v>1.018170785404346</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9197853905249845</v>
+        <v>1.00655324884642</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03127640617172</v>
+        <v>1.025559428128024</v>
       </c>
       <c r="J13">
-        <v>0.9894101323894179</v>
+        <v>1.017867878785494</v>
       </c>
       <c r="K13">
-        <v>1.002389100695998</v>
+        <v>1.021841315051707</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9365796827662027</v>
+        <v>1.010269590350368</v>
       </c>
       <c r="N13">
-        <v>0.9908152082643394</v>
+        <v>1.019313367924447</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9587865208237213</v>
+        <v>1.011225616637922</v>
       </c>
       <c r="D14">
-        <v>0.9877175622681715</v>
+        <v>1.0182903629226</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.921374344012495</v>
+        <v>1.006837758341595</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031480174907806</v>
+        <v>1.02558188215579</v>
       </c>
       <c r="J14">
-        <v>0.9900186197034764</v>
+        <v>1.017976810911104</v>
       </c>
       <c r="K14">
-        <v>1.002892163497927</v>
+        <v>1.021928180369712</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9379678774411359</v>
+        <v>1.01052029344249</v>
       </c>
       <c r="N14">
-        <v>0.9914245597001783</v>
+        <v>1.01942245474617</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9593880144127939</v>
+        <v>1.011331463019709</v>
       </c>
       <c r="D15">
-        <v>0.9881243254808221</v>
+        <v>1.018364026665481</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9223477950033246</v>
+        <v>1.007013034389836</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03160486798921</v>
+        <v>1.02559567843967</v>
       </c>
       <c r="J15">
-        <v>0.99039163948259</v>
+        <v>1.018043904290005</v>
       </c>
       <c r="K15">
-        <v>1.003200534284241</v>
+        <v>1.021981672415146</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9388182927228761</v>
+        <v>1.010674730165927</v>
       </c>
       <c r="N15">
-        <v>0.9917981092101643</v>
+        <v>1.019489643405365</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9628471103323133</v>
+        <v>1.011947379859925</v>
       </c>
       <c r="D16">
-        <v>0.9904654321386426</v>
+        <v>1.018792599676251</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9279317686387309</v>
+        <v>1.008032923311145</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032317824723346</v>
+        <v>1.02567539272217</v>
       </c>
       <c r="J16">
-        <v>0.9925346842461965</v>
+        <v>1.018434061772052</v>
       </c>
       <c r="K16">
-        <v>1.004971805791408</v>
+        <v>1.022292583735058</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9436957780565773</v>
+        <v>1.011573170379995</v>
       </c>
       <c r="N16">
-        <v>0.9939441973431457</v>
+        <v>1.019880354955788</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9649812555701335</v>
+        <v>1.012333593052569</v>
       </c>
       <c r="D17">
-        <v>0.9919113671402383</v>
+        <v>1.019061272164724</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.931365281705189</v>
+        <v>1.008672421250976</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032754023283387</v>
+        <v>1.025724879247246</v>
       </c>
       <c r="J17">
-        <v>0.9938550046699294</v>
+        <v>1.018678485435702</v>
       </c>
       <c r="K17">
-        <v>1.006062721514421</v>
+        <v>1.022487226980453</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9466941801850242</v>
+        <v>1.012136349461215</v>
       </c>
       <c r="N17">
-        <v>0.995266392773323</v>
+        <v>1.020125125729077</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9662136764461836</v>
+        <v>1.012558816436322</v>
       </c>
       <c r="D18">
-        <v>0.9927468846996297</v>
+        <v>1.019217926639344</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9333441926433842</v>
+        <v>1.009045341719994</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03300457851842</v>
+        <v>1.025753557902123</v>
       </c>
       <c r="J18">
-        <v>0.9946167900910385</v>
+        <v>1.0188209415751</v>
       </c>
       <c r="K18">
-        <v>1.006692001982216</v>
+        <v>1.022600621128221</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9484220369576196</v>
+        <v>1.012464704588715</v>
       </c>
       <c r="N18">
-        <v>0.9960292600171085</v>
+        <v>1.020267784172531</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.966631840281811</v>
+        <v>1.012635603652881</v>
       </c>
       <c r="D19">
-        <v>0.9930304634918823</v>
+        <v>1.019271331992748</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9340150149990818</v>
+        <v>1.009172483320445</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033089363650694</v>
+        <v>1.025763305034828</v>
       </c>
       <c r="J19">
-        <v>0.994875152452838</v>
+        <v>1.018869496462648</v>
       </c>
       <c r="K19">
-        <v>1.006905398593714</v>
+        <v>1.022639262214249</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9490077062485132</v>
+        <v>1.012576642070843</v>
       </c>
       <c r="N19">
-        <v>0.9962879892830959</v>
+        <v>1.020316408013589</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9647535735584286</v>
+        <v>1.012292161031928</v>
       </c>
       <c r="D20">
-        <v>0.9917570520156871</v>
+        <v>1.019032452112216</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9309993843708696</v>
+        <v>1.008603818322943</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032707625977365</v>
+        <v>1.02571958905027</v>
       </c>
       <c r="J20">
-        <v>0.9937142154203215</v>
+        <v>1.018652272686609</v>
       </c>
       <c r="K20">
-        <v>1.005946409010805</v>
+        <v>1.022466357875583</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9463746793411927</v>
+        <v>1.012075939971798</v>
       </c>
       <c r="N20">
-        <v>0.9951254035868319</v>
+        <v>1.020098875754872</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9584982857430304</v>
+        <v>1.011175025586508</v>
       </c>
       <c r="D21">
-        <v>0.9875226766186812</v>
+        <v>1.018255152805768</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9209076013433483</v>
+        <v>1.006753981493816</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031420348948383</v>
+        <v>1.025575278000565</v>
       </c>
       <c r="J21">
-        <v>0.9898398308089061</v>
+        <v>1.017944737970733</v>
       </c>
       <c r="K21">
-        <v>1.002744355222753</v>
+        <v>1.021902606645791</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9375601150342683</v>
+        <v>1.010446473836521</v>
       </c>
       <c r="N21">
-        <v>0.9912455169048702</v>
+        <v>1.019390336258545</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9544434982131348</v>
+        <v>1.010472193398289</v>
       </c>
       <c r="D22">
-        <v>0.9847835342786424</v>
+        <v>1.017765913831739</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.914322817438776</v>
+        <v>1.0055900650119</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030573886120058</v>
+        <v>1.02548286801974</v>
       </c>
       <c r="J22">
-        <v>0.9873221220046569</v>
+        <v>1.017498866352309</v>
       </c>
       <c r="K22">
-        <v>1.000662581665103</v>
+        <v>1.021546907931925</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9318066993813688</v>
+        <v>1.009420671939626</v>
       </c>
       <c r="N22">
-        <v>0.9887242326653338</v>
+        <v>1.01894383145128</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9566050954291313</v>
+        <v>1.01084482069982</v>
       </c>
       <c r="D23">
-        <v>0.9862431928360427</v>
+        <v>1.018025318002836</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9178375787733439</v>
+        <v>1.006207162671274</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031026243739881</v>
+        <v>1.025532015167572</v>
       </c>
       <c r="J23">
-        <v>0.9886648984542329</v>
+        <v>1.017735328025589</v>
       </c>
       <c r="K23">
-        <v>1.001772931244187</v>
+        <v>1.021735588800295</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9348778586874167</v>
+        <v>1.009964593886189</v>
       </c>
       <c r="N23">
-        <v>0.9900689160114867</v>
+        <v>1.019180628927259</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9648564914403157</v>
+        <v>1.012310882527225</v>
       </c>
       <c r="D24">
-        <v>0.9918268046427452</v>
+        <v>1.01904547483133</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9311647909073427</v>
+        <v>1.008634817302627</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032728602865132</v>
+        <v>1.025721980037199</v>
       </c>
       <c r="J24">
-        <v>0.9937778577104207</v>
+        <v>1.018664117445482</v>
       </c>
       <c r="K24">
-        <v>1.005998987302088</v>
+        <v>1.022475788151842</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9465191128757204</v>
+        <v>1.012103236843493</v>
       </c>
       <c r="N24">
-        <v>0.995189136256283</v>
+        <v>1.020110737334661</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9739496854902548</v>
+        <v>1.014010278481915</v>
       </c>
       <c r="D25">
-        <v>0.9979997542161896</v>
+        <v>1.020227049017536</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9457058358711207</v>
+        <v>1.011448558876991</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034553051293431</v>
+        <v>1.025935127405583</v>
       </c>
       <c r="J25">
-        <v>0.9993867155144411</v>
+        <v>1.019737533872725</v>
       </c>
       <c r="K25">
-        <v>1.010629200986861</v>
+        <v>1.02332933762046</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9592098424564537</v>
+        <v>1.014579637246109</v>
       </c>
       <c r="N25">
-        <v>1.00080595928173</v>
+        <v>1.021185678136354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_223/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_223/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015364243298753</v>
+        <v>0.9808598567682717</v>
       </c>
       <c r="D2">
-        <v>1.021167648832802</v>
+        <v>1.002702808519233</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.013690346630008</v>
+        <v>0.9566692518330947</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026099249651183</v>
+        <v>1.035896400903711</v>
       </c>
       <c r="J2">
-        <v>1.02059018207206</v>
+        <v>1.003628516092553</v>
       </c>
       <c r="K2">
-        <v>1.024005777855235</v>
+        <v>1.014124616918864</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.016550741404369</v>
+        <v>0.9687671845209566</v>
       </c>
       <c r="N2">
-        <v>1.022039537193933</v>
+        <v>1.005053783703205</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016346517302342</v>
+        <v>0.9856984413773472</v>
       </c>
       <c r="D3">
-        <v>1.021849553635956</v>
+        <v>1.006001243443459</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.015316820857091</v>
+        <v>0.9643080206990162</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026215004597372</v>
+        <v>1.036811194994734</v>
       </c>
       <c r="J3">
-        <v>1.021207265213675</v>
+        <v>1.006586722351918</v>
       </c>
       <c r="K3">
-        <v>1.024494418912385</v>
+        <v>1.01655790882187</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.017979714334573</v>
+        <v>0.9754189179750085</v>
       </c>
       <c r="N3">
-        <v>1.022657496664389</v>
+        <v>1.008016190954768</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01698174162119</v>
+        <v>0.9887524070474469</v>
       </c>
       <c r="D4">
-        <v>1.022290304323513</v>
+        <v>1.008085053131952</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.016368725254824</v>
+        <v>0.9691152760396153</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026288326665405</v>
+        <v>1.037376329653519</v>
       </c>
       <c r="J4">
-        <v>1.021605632708728</v>
+        <v>1.008448270080501</v>
       </c>
       <c r="K4">
-        <v>1.024809441117416</v>
+        <v>1.018086868315949</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.018903370668545</v>
+        <v>0.9796013210128419</v>
       </c>
       <c r="N4">
-        <v>1.023056429886978</v>
+        <v>1.009880382294648</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017248701714699</v>
+        <v>0.9900186750960908</v>
       </c>
       <c r="D5">
-        <v>1.022475479080598</v>
+        <v>1.008949457245869</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.016810825257778</v>
+        <v>0.9711055934231881</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026318773127447</v>
+        <v>1.037607665677629</v>
       </c>
       <c r="J5">
-        <v>1.021772885236777</v>
+        <v>1.009218776126568</v>
       </c>
       <c r="K5">
-        <v>1.02494159861179</v>
+        <v>1.018719135332099</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.019291446130043</v>
+        <v>0.9813320104312405</v>
       </c>
       <c r="N5">
-        <v>1.023223919932801</v>
+        <v>1.01065198254768</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017293520345345</v>
+        <v>0.9902302760258379</v>
       </c>
       <c r="D6">
-        <v>1.022506563880959</v>
+        <v>1.009093925335117</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.016885048925344</v>
+        <v>0.9714380285299381</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026323863045662</v>
+        <v>1.037646146398556</v>
       </c>
       <c r="J6">
-        <v>1.021800954721672</v>
+        <v>1.009347452653094</v>
       </c>
       <c r="K6">
-        <v>1.024963772148413</v>
+        <v>1.018824690562821</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.019356592416429</v>
+        <v>0.981621025420891</v>
       </c>
       <c r="N6">
-        <v>1.023252029279584</v>
+        <v>1.010780841809632</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016985309100398</v>
+        <v>0.9887693952003183</v>
       </c>
       <c r="D7">
-        <v>1.022292779096991</v>
+        <v>1.008096648451761</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.016374633081875</v>
+        <v>0.9691419889341167</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026288734978456</v>
+        <v>1.037379445106472</v>
       </c>
       <c r="J7">
-        <v>1.021607868413436</v>
+        <v>1.008458612476313</v>
       </c>
       <c r="K7">
-        <v>1.024811208103873</v>
+        <v>1.018095357482897</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.018908557046742</v>
+        <v>0.9796245530368928</v>
       </c>
       <c r="N7">
-        <v>1.023058668766643</v>
+        <v>1.009890739377848</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015696285161701</v>
+        <v>0.9825115033389987</v>
       </c>
       <c r="D8">
-        <v>1.021398202559479</v>
+        <v>1.003828273128703</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.014240135854391</v>
+        <v>0.9592800016550377</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026138696491979</v>
+        <v>1.036211214318018</v>
       </c>
       <c r="J8">
-        <v>1.020798920456006</v>
+        <v>1.004639465376089</v>
       </c>
       <c r="K8">
-        <v>1.024171156929384</v>
+        <v>1.014956636535926</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.017033877051458</v>
+        <v>0.9710413410160417</v>
       </c>
       <c r="N8">
-        <v>1.022248572010327</v>
+        <v>1.00606616865068</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013421960570173</v>
+        <v>0.9708563099628216</v>
       </c>
       <c r="D9">
-        <v>1.01981811846632</v>
+        <v>0.9958976505539643</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.010474479731911</v>
+        <v>0.9407747855508419</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025862218915649</v>
+        <v>1.033939110944537</v>
       </c>
       <c r="J9">
-        <v>1.019366324389581</v>
+        <v>0.9974819130922497</v>
       </c>
       <c r="K9">
-        <v>1.023034403253406</v>
+        <v>1.009057638022179</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.013722636993953</v>
+        <v>0.9549078603673108</v>
       </c>
       <c r="N9">
-        <v>1.020813941493165</v>
+        <v>0.9988984518216154</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01190372749183</v>
+        <v>0.9626042223560252</v>
       </c>
       <c r="D10">
-        <v>1.018762229298096</v>
+        <v>0.9903009436253338</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.007960641804139</v>
+        <v>0.9275404487321921</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025669775101214</v>
+        <v>1.032267999120393</v>
       </c>
       <c r="J10">
-        <v>1.018406424361843</v>
+        <v>0.992384326416733</v>
       </c>
       <c r="K10">
-        <v>1.02227056849797</v>
+        <v>1.004847553879198</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.0115095069206</v>
+        <v>0.9433540119157727</v>
       </c>
       <c r="N10">
-        <v>1.019852678297287</v>
+        <v>0.9937936259883182</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011245821567274</v>
+        <v>0.9589015012470691</v>
       </c>
       <c r="D11">
-        <v>1.018304424818269</v>
+        <v>0.98779531079765</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.00687121680024</v>
+        <v>0.9215604850199939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025584517903062</v>
+        <v>1.031504027016929</v>
       </c>
       <c r="J11">
-        <v>1.017989619303838</v>
+        <v>0.9900899338386521</v>
       </c>
       <c r="K11">
-        <v>1.021938392802107</v>
+        <v>1.002951119267493</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.010549774613509</v>
+        <v>0.9381304944790575</v>
       </c>
       <c r="N11">
-        <v>1.019435281328291</v>
+        <v>0.9914959751096056</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011001369263941</v>
+        <v>0.9575052322639109</v>
       </c>
       <c r="D12">
-        <v>1.018134285976328</v>
+        <v>0.9868514131838305</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.006466409561581</v>
+        <v>0.919298202647918</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025552559924964</v>
+        <v>1.031213872934279</v>
       </c>
       <c r="J12">
-        <v>1.01783462375059</v>
+        <v>0.989223663091311</v>
       </c>
       <c r="K12">
-        <v>1.021814792648913</v>
+        <v>1.002234930533115</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.010193064659216</v>
+        <v>0.9361540326064738</v>
       </c>
       <c r="N12">
-        <v>1.019280065663579</v>
+        <v>0.9906284741584409</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011053808609866</v>
+        <v>0.9578057081813902</v>
       </c>
       <c r="D13">
-        <v>1.018170785404346</v>
+        <v>0.9870544939888236</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.00655324884642</v>
+        <v>0.9197853905249852</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025559428128024</v>
+        <v>1.03127640617172</v>
       </c>
       <c r="J13">
-        <v>1.017867878785494</v>
+        <v>0.9894101323894182</v>
       </c>
       <c r="K13">
-        <v>1.021841315051707</v>
+        <v>1.002389100695998</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.010269590350368</v>
+        <v>0.9365796827662034</v>
       </c>
       <c r="N13">
-        <v>1.019313367924447</v>
+        <v>0.9908152082643397</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011225616637922</v>
+        <v>0.9587865208237215</v>
       </c>
       <c r="D14">
-        <v>1.0182903629226</v>
+        <v>0.9877175622681715</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.006837758341595</v>
+        <v>0.9213743440124952</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02558188215579</v>
+        <v>1.031480174907806</v>
       </c>
       <c r="J14">
-        <v>1.017976810911104</v>
+        <v>0.9900186197034766</v>
       </c>
       <c r="K14">
-        <v>1.021928180369712</v>
+        <v>1.002892163497927</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.01052029344249</v>
+        <v>0.9379678774411361</v>
       </c>
       <c r="N14">
-        <v>1.01942245474617</v>
+        <v>0.9914245597001784</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011331463019709</v>
+        <v>0.9593880144127929</v>
       </c>
       <c r="D15">
-        <v>1.018364026665481</v>
+        <v>0.9881243254808215</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.007013034389836</v>
+        <v>0.9223477950033239</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02559567843967</v>
+        <v>1.031604867989209</v>
       </c>
       <c r="J15">
-        <v>1.018043904290005</v>
+        <v>0.9903916394825892</v>
       </c>
       <c r="K15">
-        <v>1.021981672415146</v>
+        <v>1.003200534284241</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.010674730165927</v>
+        <v>0.9388182927228754</v>
       </c>
       <c r="N15">
-        <v>1.019489643405365</v>
+        <v>0.9917981092101635</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011947379859925</v>
+        <v>0.9628471103323134</v>
       </c>
       <c r="D16">
-        <v>1.018792599676251</v>
+        <v>0.9904654321386429</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.008032923311145</v>
+        <v>0.9279317686387312</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02567539272217</v>
+        <v>1.032317824723347</v>
       </c>
       <c r="J16">
-        <v>1.018434061772052</v>
+        <v>0.9925346842461966</v>
       </c>
       <c r="K16">
-        <v>1.022292583735058</v>
+        <v>1.004971805791409</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.011573170379995</v>
+        <v>0.9436957780565775</v>
       </c>
       <c r="N16">
-        <v>1.019880354955788</v>
+        <v>0.9939441973431458</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012333593052569</v>
+        <v>0.9649812555701334</v>
       </c>
       <c r="D17">
-        <v>1.019061272164724</v>
+        <v>0.9919113671402381</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.008672421250976</v>
+        <v>0.9313652817051883</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025724879247246</v>
+        <v>1.032754023283387</v>
       </c>
       <c r="J17">
-        <v>1.018678485435702</v>
+        <v>0.9938550046699293</v>
       </c>
       <c r="K17">
-        <v>1.022487226980453</v>
+        <v>1.00606272151442</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.012136349461215</v>
+        <v>0.9466941801850236</v>
       </c>
       <c r="N17">
-        <v>1.020125125729077</v>
+        <v>0.9952663927733231</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012558816436322</v>
+        <v>0.9662136764461846</v>
       </c>
       <c r="D18">
-        <v>1.019217926639344</v>
+        <v>0.9927468846996307</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.009045341719994</v>
+        <v>0.9333441926433852</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025753557902123</v>
+        <v>1.03300457851842</v>
       </c>
       <c r="J18">
-        <v>1.0188209415751</v>
+        <v>0.9946167900910391</v>
       </c>
       <c r="K18">
-        <v>1.022600621128221</v>
+        <v>1.006692001982217</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.012464704588715</v>
+        <v>0.9484220369576207</v>
       </c>
       <c r="N18">
-        <v>1.020267784172531</v>
+        <v>0.9960292600171088</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012635603652881</v>
+        <v>0.9666318402818106</v>
       </c>
       <c r="D19">
-        <v>1.019271331992748</v>
+        <v>0.9930304634918817</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.009172483320445</v>
+        <v>0.9340150149990811</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025763305034828</v>
+        <v>1.033089363650694</v>
       </c>
       <c r="J19">
-        <v>1.018869496462648</v>
+        <v>0.9948751524528375</v>
       </c>
       <c r="K19">
-        <v>1.022639262214249</v>
+        <v>1.006905398593714</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.012576642070843</v>
+        <v>0.9490077062485125</v>
       </c>
       <c r="N19">
-        <v>1.020316408013589</v>
+        <v>0.9962879892830955</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012292161031928</v>
+        <v>0.9647535735584294</v>
       </c>
       <c r="D20">
-        <v>1.019032452112216</v>
+        <v>0.9917570520156881</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.008603818322943</v>
+        <v>0.9309993843708704</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02571958905027</v>
+        <v>1.032707625977365</v>
       </c>
       <c r="J20">
-        <v>1.018652272686609</v>
+        <v>0.9937142154203222</v>
       </c>
       <c r="K20">
-        <v>1.022466357875583</v>
+        <v>1.005946409010805</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.012075939971798</v>
+        <v>0.9463746793411931</v>
       </c>
       <c r="N20">
-        <v>1.020098875754872</v>
+        <v>0.9951254035868329</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011175025586508</v>
+        <v>0.9584982857430304</v>
       </c>
       <c r="D21">
-        <v>1.018255152805768</v>
+        <v>0.9875226766186814</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.006753981493816</v>
+        <v>0.9209076013433485</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025575278000565</v>
+        <v>1.031420348948383</v>
       </c>
       <c r="J21">
-        <v>1.017944737970733</v>
+        <v>0.989839830808906</v>
       </c>
       <c r="K21">
-        <v>1.021902606645791</v>
+        <v>1.002744355222753</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.010446473836521</v>
+        <v>0.9375601150342683</v>
       </c>
       <c r="N21">
-        <v>1.019390336258545</v>
+        <v>0.9912455169048702</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010472193398289</v>
+        <v>0.9544434982131356</v>
       </c>
       <c r="D22">
-        <v>1.017765913831739</v>
+        <v>0.9847835342786432</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.0055900650119</v>
+        <v>0.9143228174387775</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02548286801974</v>
+        <v>1.030573886120058</v>
       </c>
       <c r="J22">
-        <v>1.017498866352309</v>
+        <v>0.9873221220046577</v>
       </c>
       <c r="K22">
-        <v>1.021546907931925</v>
+        <v>1.000662581665104</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.009420671939626</v>
+        <v>0.9318066993813702</v>
       </c>
       <c r="N22">
-        <v>1.01894383145128</v>
+        <v>0.9887242326653346</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01084482069982</v>
+        <v>0.9566050954291313</v>
       </c>
       <c r="D23">
-        <v>1.018025318002836</v>
+        <v>0.9862431928360426</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.006207162671274</v>
+        <v>0.9178375787733438</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025532015167572</v>
+        <v>1.031026243739881</v>
       </c>
       <c r="J23">
-        <v>1.017735328025589</v>
+        <v>0.988664898454233</v>
       </c>
       <c r="K23">
-        <v>1.021735588800295</v>
+        <v>1.001772931244187</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.009964593886189</v>
+        <v>0.9348778586874165</v>
       </c>
       <c r="N23">
-        <v>1.019180628927259</v>
+        <v>0.9900689160114868</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012310882527225</v>
+        <v>0.9648564914403167</v>
       </c>
       <c r="D24">
-        <v>1.01904547483133</v>
+        <v>0.9918268046427463</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.008634817302627</v>
+        <v>0.9311647909073443</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025721980037199</v>
+        <v>1.032728602865133</v>
       </c>
       <c r="J24">
-        <v>1.018664117445482</v>
+        <v>0.9937778577104217</v>
       </c>
       <c r="K24">
-        <v>1.022475788151842</v>
+        <v>1.005998987302089</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.012103236843493</v>
+        <v>0.9465191128757219</v>
       </c>
       <c r="N24">
-        <v>1.020110737334661</v>
+        <v>0.995189136256284</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014010278481915</v>
+        <v>0.9739496854902545</v>
       </c>
       <c r="D25">
-        <v>1.020227049017536</v>
+        <v>0.9979997542161895</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.011448558876991</v>
+        <v>0.9457058358711204</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025935127405583</v>
+        <v>1.03455305129343</v>
       </c>
       <c r="J25">
-        <v>1.019737533872725</v>
+        <v>0.9993867155144411</v>
       </c>
       <c r="K25">
-        <v>1.02332933762046</v>
+        <v>1.010629200986861</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.014579637246109</v>
+        <v>0.9592098424564536</v>
       </c>
       <c r="N25">
-        <v>1.021185678136354</v>
+        <v>1.00080595928173</v>
       </c>
     </row>
   </sheetData>
